--- a/spreadsheet/sigmoid predictor_logistic regression.xlsx
+++ b/spreadsheet/sigmoid predictor_logistic regression.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aSSIST\spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ASSIST\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>1. Data</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -494,10 +494,6 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>6. Python script</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -1586,7 +1582,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.0937083412726828E-2"/>
+          <c:y val="0.12271632182739231"/>
+          <c:w val="0.86474694717531653"/>
+          <c:h val="0.8052673339545362"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -3958,16 +3964,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>251222</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>204788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>1119189</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>150369</xdr:rowOff>
+      <xdr:rowOff>174182</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3991,8 +3997,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4543425" y="5895975"/>
-          <a:ext cx="2924175" cy="426594"/>
+          <a:off x="6656785" y="5979319"/>
+          <a:ext cx="2927748" cy="433738"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4014,14 +4020,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>750093</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4045,13 +4051,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>479425</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>117475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>111885</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>16859</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4077,13 +4083,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>98425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4107,20 +4113,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>148827</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247080</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>132677</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>386952</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>184007</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="12" name="그림 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4133,8 +4139,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1885950" y="20031075"/>
-          <a:ext cx="4561905" cy="5380952"/>
+          <a:off x="148827" y="5822155"/>
+          <a:ext cx="4577954" cy="5529915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4552,28 +4558,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N81"/>
+  <dimension ref="A2:N87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="Q68" sqref="Q68"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="80" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="3" width="19" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
     <col min="5" max="6" width="11" style="1"/>
     <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.25" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.4" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -4587,7 +4594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4601,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4615,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4629,7 +4636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4643,7 +4650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -4657,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.6">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
@@ -4665,23 +4672,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="D18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D19" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
@@ -4708,7 +4715,7 @@
       </c>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4736,7 +4743,7 @@
         <v>0.18731539867440034</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2</v>
       </c>
@@ -4767,7 +4774,7 @@
         <v>0.38934174550234885</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>3</v>
       </c>
@@ -4798,7 +4805,7 @@
         <v>0.64125095253543851</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>4</v>
       </c>
@@ -4829,7 +4836,7 @@
         <v>0.84450361590379253</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="8">
         <v>5</v>
       </c>
@@ -4860,211 +4867,107 @@
         <v>0.93759050180566494</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D28" s="1" t="s">
+    <row r="27" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D31" s="4" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="E31" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="2" t="s">
+    <row r="53" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="3" t="s">
+    <row r="54" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B54" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="1">
+    <row r="55" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B55" s="1">
         <v>6</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C55" s="1">
         <v>2</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D55" s="1">
         <v>-2.4716100399999998</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E55" s="1">
         <v>1.04428627</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F55" s="1">
         <v>-1.34085E-2</v>
       </c>
-      <c r="G49" s="1">
-        <f>E49*B49+F49*C49</f>
+      <c r="G55" s="1">
+        <f>E55*B55+F55*C55</f>
         <v>6.2389006199999999</v>
       </c>
-      <c r="H49" s="1">
-        <f>1/(1+EXP(-(D49+G49)))</f>
+      <c r="H55" s="1">
+        <f>1/(1+EXP(-(D55+G55)))</f>
         <v>0.97740760852362585</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="I55" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="1">
+    <row r="56" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B56" s="1">
         <v>1</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C56" s="1">
         <v>7</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D56" s="1">
         <v>-2.4716100399999998</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E56" s="1">
         <v>1.04428627</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F56" s="1">
         <v>-1.34085E-2</v>
       </c>
-      <c r="G50" s="1">
-        <f>E50*B50+F50*C50</f>
+      <c r="G56" s="1">
+        <f>E56*B56+F56*C56</f>
         <v>0.95042676999999998</v>
       </c>
-      <c r="H50" s="1">
-        <f>1/(1+EXP(-(D50+G50)))</f>
+      <c r="H56" s="1">
+        <f>1/(1+EXP(-(D56+G56)))</f>
         <v>0.17928734296848878</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="I56" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B54" s="2" t="s">
+    <row r="60" spans="2:10" ht="17.25" x14ac:dyDescent="0.6">
+      <c r="B60" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="10">
-        <v>-5</v>
-      </c>
-      <c r="C57" s="10">
-        <f>1/(1+EXP(-B57))</f>
-        <v>6.6928509242848554E-3</v>
-      </c>
-      <c r="D57" s="10">
-        <f>C57*(1-C57)</f>
-        <v>6.6480566707901546E-3</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="10">
-        <v>-4</v>
-      </c>
-      <c r="C58" s="10">
-        <f t="shared" ref="C58:C67" si="5">1/(1+EXP(-B58))</f>
-        <v>1.7986209962091559E-2</v>
-      </c>
-      <c r="D58" s="10">
-        <f t="shared" ref="D58:D67" si="6">C58*(1-C58)</f>
-        <v>1.7662706213291118E-2</v>
-      </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" s="10">
-        <v>-3</v>
-      </c>
-      <c r="C59" s="10">
-        <f t="shared" si="5"/>
-        <v>4.7425873177566781E-2</v>
-      </c>
-      <c r="D59" s="10">
-        <f t="shared" si="6"/>
-        <v>4.5176659730912137E-2</v>
-      </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B60" s="10">
-        <v>-2</v>
-      </c>
-      <c r="C60" s="10">
-        <f t="shared" si="5"/>
-        <v>0.11920292202211755</v>
-      </c>
-      <c r="D60" s="10">
-        <f t="shared" si="6"/>
-        <v>0.10499358540350651</v>
-      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
@@ -5072,18 +4975,10 @@
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B61" s="10">
-        <v>-1</v>
-      </c>
-      <c r="C61" s="10">
-        <f t="shared" si="5"/>
-        <v>0.2689414213699951</v>
-      </c>
-      <c r="D61" s="10">
-        <f t="shared" si="6"/>
-        <v>0.19661193324148185</v>
-      </c>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
@@ -5091,17 +4986,15 @@
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B62" s="10">
-        <v>0</v>
-      </c>
-      <c r="C62" s="10">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="D62" s="10">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="B62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
@@ -5110,17 +5003,17 @@
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B63" s="10">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="C63" s="10">
-        <f t="shared" si="5"/>
-        <v>0.7310585786300049</v>
+        <f>1/(1+EXP(-B63))</f>
+        <v>6.6928509242848554E-3</v>
       </c>
       <c r="D63" s="10">
-        <f t="shared" si="6"/>
-        <v>0.19661193324148185</v>
+        <f>C63*(1-C63)</f>
+        <v>6.6480566707901546E-3</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
@@ -5129,17 +5022,17 @@
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B64" s="10">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="C64" s="10">
-        <f t="shared" si="5"/>
-        <v>0.88079707797788231</v>
+        <f t="shared" ref="C64:C73" si="5">1/(1+EXP(-B64))</f>
+        <v>1.7986209962091559E-2</v>
       </c>
       <c r="D64" s="10">
-        <f t="shared" si="6"/>
-        <v>0.10499358540350662</v>
+        <f t="shared" ref="D64:D73" si="6">C64*(1-C64)</f>
+        <v>1.7662706213291118E-2</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
@@ -5148,17 +5041,17 @@
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B65" s="10">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="C65" s="10">
         <f t="shared" si="5"/>
-        <v>0.95257412682243336</v>
+        <v>4.7425873177566781E-2</v>
       </c>
       <c r="D65" s="10">
         <f t="shared" si="6"/>
-        <v>4.5176659730911999E-2</v>
+        <v>4.5176659730912137E-2</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
@@ -5167,17 +5060,17 @@
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B66" s="10">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="C66" s="10">
         <f t="shared" si="5"/>
-        <v>0.98201379003790845</v>
+        <v>0.11920292202211755</v>
       </c>
       <c r="D66" s="10">
         <f t="shared" si="6"/>
-        <v>1.7662706213291107E-2</v>
+        <v>0.10499358540350651</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
@@ -5186,17 +5079,17 @@
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B67" s="10">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C67" s="10">
         <f t="shared" si="5"/>
-        <v>0.99330714907571527</v>
+        <v>0.2689414213699951</v>
       </c>
       <c r="D67" s="10">
         <f t="shared" si="6"/>
-        <v>6.6480566707900332E-3</v>
+        <v>0.19661193324148185</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
@@ -5205,10 +5098,18 @@
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="B68" s="10">
+        <v>0</v>
+      </c>
+      <c r="C68" s="10">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="10">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
@@ -5216,10 +5117,18 @@
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="B69" s="10">
+        <v>1</v>
+      </c>
+      <c r="C69" s="10">
+        <f t="shared" si="5"/>
+        <v>0.7310585786300049</v>
+      </c>
+      <c r="D69" s="10">
+        <f t="shared" si="6"/>
+        <v>0.19661193324148185</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
@@ -5227,10 +5136,18 @@
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="B70" s="10">
+        <v>2</v>
+      </c>
+      <c r="C70" s="10">
+        <f t="shared" si="5"/>
+        <v>0.88079707797788231</v>
+      </c>
+      <c r="D70" s="10">
+        <f t="shared" si="6"/>
+        <v>0.10499358540350662</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
@@ -5238,10 +5155,18 @@
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="B71" s="10">
+        <v>3</v>
+      </c>
+      <c r="C71" s="10">
+        <f t="shared" si="5"/>
+        <v>0.95257412682243336</v>
+      </c>
+      <c r="D71" s="10">
+        <f t="shared" si="6"/>
+        <v>4.5176659730911999E-2</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
@@ -5249,10 +5174,18 @@
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="B72" s="10">
+        <v>4</v>
+      </c>
+      <c r="C72" s="10">
+        <f t="shared" si="5"/>
+        <v>0.98201379003790845</v>
+      </c>
+      <c r="D72" s="10">
+        <f t="shared" si="6"/>
+        <v>1.7662706213291107E-2</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -5260,10 +5193,18 @@
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="B73" s="10">
+        <v>5</v>
+      </c>
+      <c r="C73" s="10">
+        <f t="shared" si="5"/>
+        <v>0.99330714907571527</v>
+      </c>
+      <c r="D73" s="10">
+        <f t="shared" si="6"/>
+        <v>6.6480566707900332E-3</v>
+      </c>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
@@ -5271,7 +5212,7 @@
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -5282,7 +5223,7 @@
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -5293,7 +5234,7 @@
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -5304,7 +5245,7 @@
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -5315,7 +5256,7 @@
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -5326,7 +5267,7 @@
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -5337,7 +5278,7 @@
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -5348,15 +5289,79 @@
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
     </row>
-    <row r="81" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B81" s="2" t="s">
-        <v>24</v>
-      </c>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>